--- a/utilities/steppers_setup.xlsx
+++ b/utilities/steppers_setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco Stasi\OneDrive - Politecnico di Bari\UNI_Robotics_1\RASN_5\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FAB7758-46E8-426F-A9B3-612BF800CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BC355C-6894-4168-9908-C03294ED269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3EE5BFBF-C68A-4F66-B9CB-853F85E00EE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EE5BFBF-C68A-4F66-B9CB-853F85E00EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Rapp</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>microstepping</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>TIM8</t>
+  </si>
+  <si>
+    <t>master timer (pwm)</t>
+  </si>
+  <si>
+    <t>slave timer</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>TIM5</t>
   </si>
 </sst>
 </file>
@@ -450,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD627F75-2CA8-4381-B4D8-B4A639C6694E}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,9 +490,11 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -493,11 +519,17 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,8 +559,14 @@
       <c r="I2">
         <v>4</v>
       </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -558,8 +596,14 @@
       <c r="I3">
         <v>4</v>
       </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -569,7 +613,7 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>256.34765625</v>
       </c>
@@ -588,6 +632,12 @@
       </c>
       <c r="I4">
         <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
